--- a/PS-VRP/Dati_output/[ERROR]-tassative_normalizzate.xlsx
+++ b/PS-VRP/Dati_output/[ERROR]-tassative_normalizzate.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +442,122 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253295</v>
+        <v>251790</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45911.58333333334</v>
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>251231</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>252350</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45847.58333333334</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>243536</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>243526</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>243527</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>243535</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>243523</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>251685</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>252785</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>252784</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>252783</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>251849</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>252277</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45847.58333333334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>252456</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45847.58333333334</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/[ERROR]-tassative_normalizzate.xlsx
+++ b/PS-VRP/Dati_output/[ERROR]-tassative_normalizzate.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,122 +442,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251790</v>
+        <v>253295</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>251231</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>252350</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45847.58333333334</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>243536</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>243526</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>243527</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>243535</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>243523</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>251685</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>252785</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>252784</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>252783</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>251849</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>252277</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45847.58333333334</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>252456</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45847.58333333334</v>
+        <v>45911.58333333334</v>
       </c>
     </row>
   </sheetData>
